--- a/Evaluasi Model Klasifikasi - 30 Okt.xlsx
+++ b/Evaluasi Model Klasifikasi - 30 Okt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Latihan-Data-Science\sklearn-kopra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Latihan-Data-Science\kopra-introduction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03874E2B-3AEE-49AA-B539-D9578DCE8571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1225DC-F5FB-4C8F-A016-3E03CE9DAF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -986,6 +986,12 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="5" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -993,12 +999,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1028,6 +1028,9 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="5" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1036,9 +1039,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7263,8 +7263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E86" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8:AG42"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83:P83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7287,42 +7287,42 @@
   <sheetData>
     <row r="1" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="T1" s="73" t="s">
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="T1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73" t="s">
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
       <c r="AI1" s="38"/>
       <c r="AJ1" s="38"/>
       <c r="AK1" s="38"/>
@@ -7343,34 +7343,34 @@
     <row r="2" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="74"/>
       <c r="AI2" s="38"/>
       <c r="AJ2" s="38"/>
       <c r="AK2" s="38"/>
@@ -7681,10 +7681,10 @@
       <c r="AX7" s="38"/>
     </row>
     <row r="8" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="74"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -8175,10 +8175,10 @@
       <c r="AX12" s="38"/>
     </row>
     <row r="13" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="60"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -8193,10 +8193,10 @@
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
-      <c r="R13" s="71" t="s">
+      <c r="R13" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="72"/>
+      <c r="S13" s="73"/>
       <c r="T13" s="34"/>
       <c r="U13" s="34"/>
       <c r="V13" s="34"/>
@@ -8669,10 +8669,10 @@
       <c r="AX17" s="38"/>
     </row>
     <row r="18" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="72"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
@@ -8687,10 +8687,10 @@
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
-      <c r="R18" s="71" t="s">
+      <c r="R18" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="S18" s="72"/>
+      <c r="S18" s="73"/>
       <c r="T18" s="34"/>
       <c r="U18" s="34"/>
       <c r="V18" s="34"/>
@@ -9163,10 +9163,10 @@
       <c r="AX22" s="38"/>
     </row>
     <row r="23" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="72"/>
+      <c r="B23" s="73"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -9181,10 +9181,10 @@
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
-      <c r="R23" s="71" t="s">
+      <c r="R23" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="S23" s="72"/>
+      <c r="S23" s="73"/>
       <c r="T23" s="34"/>
       <c r="U23" s="34"/>
       <c r="V23" s="34"/>
@@ -9657,10 +9657,10 @@
       <c r="AX27" s="38"/>
     </row>
     <row r="28" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="72"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -9675,10 +9675,10 @@
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
-      <c r="R28" s="60" t="s">
+      <c r="R28" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="S28" s="60"/>
+      <c r="S28" s="57"/>
       <c r="T28" s="34"/>
       <c r="U28" s="34"/>
       <c r="V28" s="34"/>
@@ -10151,10 +10151,10 @@
       <c r="AX32" s="38"/>
     </row>
     <row r="33" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="71" t="s">
+      <c r="A33" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="72"/>
+      <c r="B33" s="73"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -10169,10 +10169,10 @@
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
-      <c r="R33" s="60" t="s">
+      <c r="R33" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="S33" s="60"/>
+      <c r="S33" s="57"/>
       <c r="T33" s="34"/>
       <c r="U33" s="34"/>
       <c r="V33" s="34"/>
@@ -10645,10 +10645,10 @@
       <c r="AX37" s="38"/>
     </row>
     <row r="38" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="72"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -10663,10 +10663,10 @@
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
-      <c r="R38" s="60" t="s">
+      <c r="R38" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="S38" s="60"/>
+      <c r="S38" s="57"/>
       <c r="T38" s="34"/>
       <c r="U38" s="34"/>
       <c r="V38" s="34"/>
@@ -11563,10 +11563,10 @@
       <c r="AX49" s="38"/>
     </row>
     <row r="50" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="61" t="s">
+      <c r="A50" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="61"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="31">
         <f>MIN(C9,C14,C19,C24,C34,C39)</f>
         <v>0.6522</v>
@@ -11623,10 +11623,10 @@
         <f t="shared" si="0"/>
         <v>0.77170000000000005</v>
       </c>
-      <c r="R50" s="74" t="s">
+      <c r="R50" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="S50" s="74"/>
+      <c r="S50" s="71"/>
       <c r="T50" s="21"/>
       <c r="U50" s="21"/>
       <c r="V50" s="21"/>
@@ -11941,10 +11941,10 @@
       <c r="N55" s="47"/>
       <c r="O55" s="47"/>
       <c r="P55" s="47"/>
-      <c r="R55" s="60" t="s">
+      <c r="R55" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="S55" s="60"/>
+      <c r="S55" s="57"/>
       <c r="T55" s="36"/>
       <c r="U55" s="36"/>
       <c r="V55" s="36"/>
@@ -12167,10 +12167,10 @@
       <c r="AX58" s="38"/>
     </row>
     <row r="59" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="61" t="s">
+      <c r="A59" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="61"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="31">
         <f t="shared" ref="C59:J59" si="3">MIN(T9,T14,T19,T24,T29,T34,T39)</f>
         <v>0.65759999999999996</v>
@@ -12323,10 +12323,10 @@
         <f t="shared" ref="P60" si="23">MAX(AG9,AG14,AG19,AG24,AG29,AG34,AG39)</f>
         <v>0.86680000000000001</v>
       </c>
-      <c r="R60" s="60" t="s">
+      <c r="R60" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="S60" s="60"/>
+      <c r="S60" s="57"/>
       <c r="T60" s="36"/>
       <c r="U60" s="36"/>
       <c r="V60" s="36"/>
@@ -12597,10 +12597,10 @@
       <c r="N65" s="35"/>
       <c r="O65" s="35"/>
       <c r="P65" s="35"/>
-      <c r="R65" s="60" t="s">
+      <c r="R65" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="S65" s="60"/>
+      <c r="S65" s="57"/>
       <c r="T65" s="36"/>
       <c r="U65" s="36"/>
       <c r="V65" s="36"/>
@@ -12771,10 +12771,10 @@
       <c r="AX67" s="38"/>
     </row>
     <row r="68" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="61" t="s">
+      <c r="A68" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="B68" s="61"/>
+      <c r="B68" s="58"/>
       <c r="C68" s="31"/>
       <c r="D68" s="31"/>
       <c r="E68" s="31"/>
@@ -12897,10 +12897,10 @@
       <c r="N70" s="41"/>
       <c r="O70" s="41"/>
       <c r="P70" s="41"/>
-      <c r="R70" s="60" t="s">
+      <c r="R70" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="S70" s="60"/>
+      <c r="S70" s="57"/>
       <c r="T70" s="36"/>
       <c r="U70" s="36"/>
       <c r="V70" s="36"/>
@@ -13149,10 +13149,10 @@
       <c r="N75" s="49"/>
       <c r="O75" s="49"/>
       <c r="P75" s="49"/>
-      <c r="R75" s="60" t="s">
+      <c r="R75" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="S75" s="60"/>
+      <c r="S75" s="57"/>
       <c r="T75" s="36"/>
       <c r="U75" s="36"/>
       <c r="V75" s="36"/>
@@ -13241,24 +13241,24 @@
       <c r="AX76" s="38"/>
     </row>
     <row r="77" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="60" t="s">
+      <c r="A77" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="B77" s="60"/>
-      <c r="C77" s="57"/>
-      <c r="D77" s="58"/>
-      <c r="E77" s="58"/>
-      <c r="F77" s="58"/>
-      <c r="G77" s="58"/>
-      <c r="H77" s="58"/>
-      <c r="I77" s="59"/>
-      <c r="J77" s="57"/>
-      <c r="K77" s="58"/>
-      <c r="L77" s="58"/>
-      <c r="M77" s="58"/>
-      <c r="N77" s="58"/>
-      <c r="O77" s="58"/>
-      <c r="P77" s="59"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="61"/>
+      <c r="J77" s="59"/>
+      <c r="K77" s="60"/>
+      <c r="L77" s="60"/>
+      <c r="M77" s="60"/>
+      <c r="N77" s="60"/>
+      <c r="O77" s="60"/>
+      <c r="P77" s="61"/>
       <c r="R77" s="63" t="s">
         <v>6</v>
       </c>
@@ -13295,10 +13295,10 @@
       <c r="AX77" s="38"/>
     </row>
     <row r="78" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="61" t="s">
+      <c r="A78" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="61"/>
+      <c r="B78" s="58"/>
       <c r="C78" s="55">
         <f>MIN(T93,U93,V93,W93,X93,Y93,Z93)</f>
         <v>0.56520000000000004</v>
@@ -13439,10 +13439,10 @@
       <c r="N80" s="45"/>
       <c r="O80" s="45"/>
       <c r="P80" s="45"/>
-      <c r="R80" s="60" t="s">
+      <c r="R80" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="S80" s="60"/>
+      <c r="S80" s="57"/>
       <c r="T80" s="36"/>
       <c r="U80" s="36"/>
       <c r="V80" s="36"/>
@@ -13475,24 +13475,24 @@
       <c r="AX80" s="38"/>
     </row>
     <row r="81" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="60" t="s">
+      <c r="A81" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="B81" s="60"/>
-      <c r="C81" s="57"/>
-      <c r="D81" s="58"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="58"/>
-      <c r="H81" s="58"/>
-      <c r="I81" s="59"/>
-      <c r="J81" s="57"/>
-      <c r="K81" s="58"/>
-      <c r="L81" s="58"/>
-      <c r="M81" s="58"/>
-      <c r="N81" s="58"/>
-      <c r="O81" s="58"/>
-      <c r="P81" s="59"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="59"/>
+      <c r="K81" s="60"/>
+      <c r="L81" s="60"/>
+      <c r="M81" s="60"/>
+      <c r="N81" s="60"/>
+      <c r="O81" s="60"/>
+      <c r="P81" s="61"/>
       <c r="R81" s="63" t="s">
         <v>5</v>
       </c>
@@ -13529,10 +13529,10 @@
       <c r="AX81" s="38"/>
     </row>
     <row r="82" spans="1:50" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="61" t="s">
+      <c r="A82" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="B82" s="61"/>
+      <c r="B82" s="58"/>
       <c r="C82" s="55">
         <f>MIN(T98,U98,V98,W98,X98,Y98,Z98)</f>
         <v>0.60329999999999995</v>
@@ -15768,7 +15768,6 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A46:P46"/>
-    <mergeCell ref="A29:B29"/>
     <mergeCell ref="T6:Z6"/>
     <mergeCell ref="T1:Z2"/>
     <mergeCell ref="AA1:AG2"/>
@@ -15778,13 +15777,22 @@
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="AA6:AG6"/>
     <mergeCell ref="R4:AG4"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R17:S17"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="R11:S11"/>
     <mergeCell ref="R12:S12"/>
+    <mergeCell ref="C1:I2"/>
+    <mergeCell ref="J1:P2"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R17:S17"/>
     <mergeCell ref="R14:S14"/>
     <mergeCell ref="R28:S28"/>
     <mergeCell ref="R29:S29"/>
@@ -15792,18 +15800,22 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="R48:S49"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C1:I2"/>
-    <mergeCell ref="J1:P2"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="R51:S51"/>
     <mergeCell ref="R30:S30"/>
     <mergeCell ref="R35:S35"/>
     <mergeCell ref="R26:S26"/>
@@ -15814,13 +15826,6 @@
     <mergeCell ref="J6:P6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="R68:S68"/>
     <mergeCell ref="R69:S69"/>
     <mergeCell ref="A55:P55"/>
@@ -15837,7 +15842,12 @@
     <mergeCell ref="R58:S58"/>
     <mergeCell ref="R59:S59"/>
     <mergeCell ref="R57:S57"/>
-    <mergeCell ref="R48:S49"/>
+    <mergeCell ref="A64:P64"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="C66:I66"/>
+    <mergeCell ref="J66:P66"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
     <mergeCell ref="T48:Z48"/>
     <mergeCell ref="AA48:AG48"/>
     <mergeCell ref="R62:S62"/>
@@ -15848,13 +15858,9 @@
     <mergeCell ref="R67:S67"/>
     <mergeCell ref="R54:S54"/>
     <mergeCell ref="R53:S53"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="R51:S51"/>
     <mergeCell ref="R45:AG45"/>
     <mergeCell ref="R46:AG46"/>
     <mergeCell ref="R31:S31"/>
@@ -15887,12 +15893,6 @@
     <mergeCell ref="R90:S91"/>
     <mergeCell ref="T90:Z90"/>
     <mergeCell ref="AA90:AG90"/>
-    <mergeCell ref="A64:P64"/>
-    <mergeCell ref="A66:B67"/>
-    <mergeCell ref="C66:I66"/>
-    <mergeCell ref="J66:P66"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A73:P73"/>
     <mergeCell ref="A75:B76"/>
@@ -15916,11 +15916,6 @@
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="A80:B80"/>
-    <mergeCell ref="R97:S97"/>
-    <mergeCell ref="R98:S98"/>
-    <mergeCell ref="R99:S99"/>
-    <mergeCell ref="R100:S100"/>
-    <mergeCell ref="R101:S101"/>
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="J82:P82"/>
     <mergeCell ref="C82:I82"/>
@@ -15930,10 +15925,6 @@
     <mergeCell ref="J83:P83"/>
     <mergeCell ref="R92:S92"/>
     <mergeCell ref="R93:S93"/>
-    <mergeCell ref="R94:S94"/>
-    <mergeCell ref="R95:S95"/>
-    <mergeCell ref="R96:S96"/>
-    <mergeCell ref="A98:B98"/>
     <mergeCell ref="A103:B103"/>
     <mergeCell ref="A105:B105"/>
     <mergeCell ref="J84:P84"/>
@@ -15942,6 +15933,15 @@
     <mergeCell ref="C88:I88"/>
     <mergeCell ref="J88:P88"/>
     <mergeCell ref="A90:B90"/>
+    <mergeCell ref="R97:S97"/>
+    <mergeCell ref="R98:S98"/>
+    <mergeCell ref="R99:S99"/>
+    <mergeCell ref="R100:S100"/>
+    <mergeCell ref="R101:S101"/>
+    <mergeCell ref="R94:S94"/>
+    <mergeCell ref="R95:S95"/>
+    <mergeCell ref="R96:S96"/>
+    <mergeCell ref="A98:B98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -15960,7 +15960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9EE9C4-8FE8-49DE-B3BB-670161C36C54}">
   <dimension ref="C20:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
@@ -16013,7 +16013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="80" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
